--- a/Auto Tools TestCases.xlsx
+++ b/Auto Tools TestCases.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u71\Desktop\New folder\Selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u71\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login Suite" sheetId="2" r:id="rId1"/>
     <sheet name="Home Page" sheetId="3" r:id="rId2"/>
-    <sheet name="Username Dropdown" sheetId="4" r:id="rId3"/>
+    <sheet name="Username Dropdown" sheetId="6" r:id="rId3"/>
     <sheet name="Test Management Dropdown" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="153">
   <si>
     <t>S.No</t>
   </si>
@@ -71,15 +71,9 @@
     <t>1. Login with valid Username and Password into Auto Tools</t>
   </si>
   <si>
-    <t>To Navigate to Home Page</t>
-  </si>
-  <si>
     <t>1.User should be in the Home page after successful Login</t>
   </si>
   <si>
-    <t>Two Sub-links under Username Link should be listed</t>
-  </si>
-  <si>
     <t>2. Click the button with User name</t>
   </si>
   <si>
@@ -92,156 +86,39 @@
     <t>3. My Profile Page should be displayed</t>
   </si>
   <si>
-    <t xml:space="preserve">4. change the first name </t>
-  </si>
-  <si>
-    <t>4. First name should be  updated</t>
-  </si>
-  <si>
-    <t>5. Click on Save</t>
-  </si>
-  <si>
     <t>First name of the User should be updated successfully</t>
   </si>
   <si>
-    <t>Change the First name of the user without clicking save</t>
-  </si>
-  <si>
-    <t>5. Refresh without clicking Save</t>
-  </si>
-  <si>
-    <t>6. The User name's First name should not be updated and should be the same old User name</t>
-  </si>
-  <si>
     <t>Previous first name and Last name should remain unchanged</t>
   </si>
   <si>
-    <t>Change the First name of the user and click Save</t>
-  </si>
-  <si>
-    <t>2. Click Autolink Button</t>
-  </si>
-  <si>
-    <t>2. User should again navigate to Home Page with Auto Tools Bold Header and "Welcome to Auto Tools" Message</t>
-  </si>
-  <si>
     <t>Auto Tools Home Page with "Welcome to Home Page" message should be displayed</t>
   </si>
   <si>
-    <t>Change the Last name of the user and click Save</t>
-  </si>
-  <si>
-    <t>Change the Last name of the user without clicking save</t>
-  </si>
-  <si>
     <t>Last name of the User should be updated successfully</t>
   </si>
   <si>
-    <t xml:space="preserve">4. change the Last name </t>
-  </si>
-  <si>
-    <t>4. Last name should be  updated</t>
-  </si>
-  <si>
-    <t>6. The User name's Last name should be updated as well in the header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change the Title of the user </t>
-  </si>
-  <si>
-    <t>Change the Organisation details of the user</t>
-  </si>
-  <si>
-    <t>4. change the Title of the user</t>
-  </si>
-  <si>
-    <t>4. New Title should be  updated in the textbox</t>
-  </si>
-  <si>
-    <t>6. the updated Title along with Success message as "Success! Saved user. " should be displayed in green bar</t>
-  </si>
-  <si>
-    <t>6. The User name's First name should be updated as well in the header along with Success message as "Success! Saved user. " should be displayed in green bar</t>
-  </si>
-  <si>
-    <t>6. The User name's Last name should not be updated and should be the same old User namealong with Success message as "Success! Saved user. " should be displayed in green bar</t>
-  </si>
-  <si>
-    <t>4. change the Organisation details of the user</t>
-  </si>
-  <si>
-    <t>4. New Organisation details should be  updated in the textbox</t>
-  </si>
-  <si>
     <t>Title of the User should be updated successfully</t>
   </si>
   <si>
     <t>Organisation details of the User should be updated successfully</t>
   </si>
   <si>
-    <t>Remove the First name of the user and click Save</t>
-  </si>
-  <si>
-    <t>Remove the Last name of the user and click Save</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Remove the first name </t>
-  </si>
-  <si>
-    <t>4. First name field should be Empty</t>
-  </si>
-  <si>
-    <t>6. The User name field is mandatory, so error saying "So what do we call this user? " in Red should be displayed</t>
-  </si>
-  <si>
     <t>User should see the error and The First name is removed from User name Link in the Header</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Remove the Last name </t>
-  </si>
-  <si>
-    <t>4. Last name field should be Empty</t>
-  </si>
-  <si>
-    <t>6. The User name field is mandatory, so error saying "This field requires a value  " in Red should be displayed</t>
-  </si>
-  <si>
     <t>User should see the error and The Last name is removed from User name Link in the Header</t>
   </si>
   <si>
-    <t>Remove the emailID of the user and click Save</t>
-  </si>
-  <si>
-    <t>4. Remove the EmailID</t>
-  </si>
-  <si>
-    <t>4. EmailID field should be Empty</t>
-  </si>
-  <si>
-    <t>6. EmailID is mandatory, so error saying "This field requires a value  " in Red should be displayed</t>
-  </si>
-  <si>
     <t>User should see the error as EmailID fiels is mandatory</t>
   </si>
   <si>
-    <t>Change the Password of the User</t>
-  </si>
-  <si>
     <t>4. Enter the Password you would like to change to</t>
   </si>
   <si>
     <t>4. Password should be displayed with *'s and original Password should not be displayed</t>
   </si>
   <si>
-    <t>6. Enter the same Password , which is enetered in Password field into Password Verification Field</t>
-  </si>
-  <si>
-    <t>5. Error with "Password and password verification must be the same " should be thorwoed as the Password verification field is not filled</t>
-  </si>
-  <si>
-    <t>6. Passwords should match</t>
-  </si>
-  <si>
     <t>7. Click on Save</t>
   </si>
   <si>
@@ -249,27 +126,6 @@
   </si>
   <si>
     <t>User should able to successfully change the Password</t>
-  </si>
-  <si>
-    <t>Change the Password of the User by different Password and Password Verification details</t>
-  </si>
-  <si>
-    <t>6. Enter the different Password from the password entered in Password field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. "Password and password verification must be the same  " message should be displayed </t>
-  </si>
-  <si>
-    <t>User old Password should not be changed</t>
-  </si>
-  <si>
-    <t>Logout from the Application</t>
-  </si>
-  <si>
-    <t>3. Click on Logout</t>
-  </si>
-  <si>
-    <t>3. User should be navigated to Login Page</t>
   </si>
   <si>
     <t>User should able to successfully Logout</t>
@@ -415,6 +271,225 @@
   </si>
   <si>
     <t>Username credentials are saved  untill User did not click on logout button</t>
+  </si>
+  <si>
+    <t>Click on the Username Dropdown</t>
+  </si>
+  <si>
+    <t>The Username dropdown should list two options</t>
+  </si>
+  <si>
+    <t>Click Logout</t>
+  </si>
+  <si>
+    <t>User should be navigated to Login Screen again</t>
+  </si>
+  <si>
+    <t>User should able to Logout after Login to the Autotools application</t>
+  </si>
+  <si>
+    <t>Click on 'My Profile' button</t>
+  </si>
+  <si>
+    <t>My Profile' page should be opened</t>
+  </si>
+  <si>
+    <t>Click on First Name Textbox</t>
+  </si>
+  <si>
+    <t>First Name Testbox should be editable</t>
+  </si>
+  <si>
+    <t>Change the first name</t>
+  </si>
+  <si>
+    <t>First Name field should be updated with the new text</t>
+  </si>
+  <si>
+    <t>Click on Save</t>
+  </si>
+  <si>
+    <t>The User name's First name should be updated as well in the header along with Success message as "Success! Saved user. " should be displayed in green bar</t>
+  </si>
+  <si>
+    <t>Click on Last Name Textbox</t>
+  </si>
+  <si>
+    <t>Last Name Testbox should be editable</t>
+  </si>
+  <si>
+    <t>Change the Last name</t>
+  </si>
+  <si>
+    <t>Lats Name field should be updated with the new text</t>
+  </si>
+  <si>
+    <t>The User name's Last name should be updated as well in the header along with Success message as "Success! Saved user. " should be displayed in green bar</t>
+  </si>
+  <si>
+    <t>Click Autolink Button</t>
+  </si>
+  <si>
+    <t>User should again navigate to Home Page with Auto Tools Bold Header and "Welcome to Auto Tools" Message</t>
+  </si>
+  <si>
+    <t>The User name's First name should not be updated and should be the same old User name</t>
+  </si>
+  <si>
+    <t>Click on F5 to represh the screen</t>
+  </si>
+  <si>
+    <t>The User name's Last name should not be updated and should be the same old User name</t>
+  </si>
+  <si>
+    <t>Click on Title Textbox</t>
+  </si>
+  <si>
+    <t>Title should be editable</t>
+  </si>
+  <si>
+    <t>Change the Title</t>
+  </si>
+  <si>
+    <t>Previous Title should be updated with the new text</t>
+  </si>
+  <si>
+    <t>Click Save</t>
+  </si>
+  <si>
+    <t>TheTitle of the user should be updated with new Title</t>
+  </si>
+  <si>
+    <t>Click on Organization Textbox</t>
+  </si>
+  <si>
+    <t>Organization Testbox should be editable</t>
+  </si>
+  <si>
+    <t>Change the Organisation details</t>
+  </si>
+  <si>
+    <t>Organisation field should be updated with the new text</t>
+  </si>
+  <si>
+    <t>Click save</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the updated Organisation details along with Success message as "Success! Saved user. " should be displayed in green bar</t>
+  </si>
+  <si>
+    <t>Remove the first name</t>
+  </si>
+  <si>
+    <t>First Name field should be empty</t>
+  </si>
+  <si>
+    <t>The User name field is mandatory, so error saying "So what do we call this user? " in Red should be displayed</t>
+  </si>
+  <si>
+    <t>Remove the Last name</t>
+  </si>
+  <si>
+    <t>Last Name field should be empty</t>
+  </si>
+  <si>
+    <t>Click on EmailID Textbox</t>
+  </si>
+  <si>
+    <t>EmailID Testbox should be editable</t>
+  </si>
+  <si>
+    <t>Remove the existing EmailID</t>
+  </si>
+  <si>
+    <t>EmailID should be empty</t>
+  </si>
+  <si>
+    <t>EmailID is mandatory, so error saying "This field requires a value  " in Red should be displayed</t>
+  </si>
+  <si>
+    <t>Click on Password Textbox</t>
+  </si>
+  <si>
+    <t>Password Testbox should be editable</t>
+  </si>
+  <si>
+    <t>Remove the existing Password</t>
+  </si>
+  <si>
+    <t>Password should be empty</t>
+  </si>
+  <si>
+    <t>Password should be displayed with *'s and original Password should not be displayed</t>
+  </si>
+  <si>
+    <t>Passwords should match</t>
+  </si>
+  <si>
+    <t>Success! Saved user.  message should be displayed after successful Password change</t>
+  </si>
+  <si>
+    <t>Enter new Password as "Password123"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enter "Password456" into Password Verification Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enter the same Password , "Password123" into Password Verification Field</t>
+  </si>
+  <si>
+    <t>Passwords should not match</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Password and password verification must be the same  " message should be displayed </t>
+  </si>
+  <si>
+    <t>User old Password should not be changed when tried to login</t>
+  </si>
+  <si>
+    <t>Click on 'Logout' button</t>
+  </si>
+  <si>
+    <t>To verify the navigation to Login Page by clicking on the Autolink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify the Login and Logout functionality for AutoTools application </t>
+  </si>
+  <si>
+    <t>To verify the First name of the user , when user edits First name in Auto Tools application</t>
+  </si>
+  <si>
+    <t>To verify the Last name of the user , when user edits Last name in Auto Tools application</t>
+  </si>
+  <si>
+    <t>To verify the First name of the user , when user edits First name in Auto Tools application without clicking Save</t>
+  </si>
+  <si>
+    <t>To verify the Last name of the user , when user edits Last name in Auto Tools application without clicking Save</t>
+  </si>
+  <si>
+    <t>To verify the Title of the user , when user edits Title in Auto Tools application</t>
+  </si>
+  <si>
+    <t>To verify the Organisation of the user , when user edits Organisation in Auto Tools application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the First name of the user , when user deletes First name in Auto Tools application </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the Last name of the user , when user deletes Last name in Auto Tools application </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the EmailID of the user , when user deletes EmailID in Auto Tools application </t>
+  </si>
+  <si>
+    <t>To verify the screenflow for Login and Logout</t>
+  </si>
+  <si>
+    <t>To verify the functionality of Autotools, when tried to change the password, with different  Password and Password Verification.</t>
+  </si>
+  <si>
+    <t>To verify the functionality of successful Password change</t>
   </si>
 </sst>
 </file>
@@ -546,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -600,23 +675,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -627,29 +705,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,10 +1081,10 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22"/>
+      <c r="F1" s="29"/>
       <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
@@ -1012,430 +1096,432 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>114</v>
+      <c r="D3" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="7" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+        <v>51</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="7" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="7" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+        <v>55</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="7" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+        <v>56</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="32" t="s">
-        <v>100</v>
+      <c r="A8" s="33"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+        <v>57</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>113</v>
+      <c r="D9" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="7" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+        <v>51</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="7" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="7" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+        <v>55</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="32" t="s">
-        <v>100</v>
+      <c r="A13" s="25"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+        <v>69</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
-        <v>2</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="23" t="s">
+      <c r="A14" s="24">
+        <v>3</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>113</v>
+      <c r="D14" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="7" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+        <v>51</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+        <v>55</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="32" t="s">
-        <v>100</v>
+      <c r="A18" s="25"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+        <v>69</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
-        <v>3</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="23" t="s">
+      <c r="A19" s="21">
+        <v>4</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>113</v>
+      <c r="D19" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+        <v>51</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="7" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
+        <v>55</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+        <v>73</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="32" t="s">
-        <v>100</v>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
+        <v>57</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+        <v>76</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="7" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
+        <v>78</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="16">
+        <v>5</v>
+      </c>
       <c r="B27" s="15"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1534,299 +1620,299 @@
       <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="23">
+      <c r="A36" s="21">
         <v>4</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="23" t="s">
+      <c r="B36" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="5" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
+        <v>37</v>
+      </c>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
     </row>
     <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="5" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="25">
+      <c r="A39" s="26">
         <v>5</v>
       </c>
-      <c r="B39" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="26" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25" t="s">
+      <c r="F40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+    </row>
+    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-    </row>
-    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="7" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
+        <v>31</v>
+      </c>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="12" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
+        <v>43</v>
+      </c>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
     </row>
     <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="7" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
+        <v>45</v>
+      </c>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
     </row>
     <row r="46" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="25">
+      <c r="A46" s="26">
         <v>6</v>
       </c>
-      <c r="B46" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="25" t="s">
+      <c r="B46" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="26" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25" t="s">
+      <c r="F47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+    </row>
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+    </row>
+    <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-    </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-    </row>
-    <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
       <c r="E50" s="7" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
+        <v>31</v>
+      </c>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
       <c r="E51" s="12" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
+        <v>43</v>
+      </c>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
     </row>
     <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="7" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
+        <v>49</v>
+      </c>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
@@ -2721,45 +2807,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="G19:G26"/>
-    <mergeCell ref="H19:H26"/>
-    <mergeCell ref="I19:I26"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H46:H52"/>
-    <mergeCell ref="I46:I52"/>
-    <mergeCell ref="I39:I45"/>
-    <mergeCell ref="G39:G45"/>
-    <mergeCell ref="H39:H45"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="D46:D52"/>
-    <mergeCell ref="G46:G52"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="C39:C45"/>
-    <mergeCell ref="D39:D45"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
     <mergeCell ref="G3:G8"/>
     <mergeCell ref="H3:H8"/>
     <mergeCell ref="I3:I8"/>
@@ -2773,6 +2820,45 @@
     <mergeCell ref="G9:G13"/>
     <mergeCell ref="H9:H13"/>
     <mergeCell ref="I9:I13"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="D46:D52"/>
+    <mergeCell ref="G46:G52"/>
+    <mergeCell ref="H46:H52"/>
+    <mergeCell ref="I46:I52"/>
+    <mergeCell ref="I39:I45"/>
+    <mergeCell ref="G39:G45"/>
+    <mergeCell ref="H39:H45"/>
+    <mergeCell ref="H19:H26"/>
+    <mergeCell ref="I19:I26"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="G19:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2780,17 +2866,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -2810,10 +2896,10 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29"/>
+      <c r="F1" s="34"/>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2825,105 +2911,121 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>12</v>
+      <c r="D3" s="37" t="s">
+        <v>66</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="7" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -3733,7 +3835,7 @@
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="7"/>
+      <c r="E82" s="5"/>
       <c r="F82" s="7"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -3744,7 +3846,7 @@
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="7"/>
+      <c r="E83" s="5"/>
       <c r="F83" s="7"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -3755,7 +3857,7 @@
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="7"/>
+      <c r="E84" s="5"/>
       <c r="F84" s="7"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -3805,51 +3907,18 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="I3:I8"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="G3:G8"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3857,1653 +3926,2483 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A2:I330"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113:B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" customWidth="1"/>
-    <col min="6" max="6" width="55.140625" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="2" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="2" t="s">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B4" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D4" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
+        <v>2</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+    </row>
+    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="37">
+        <v>3</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+    </row>
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+    </row>
+    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="37">
+        <v>4</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+    </row>
+    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+    </row>
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+    </row>
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="37">
+        <v>5</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+    </row>
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+    </row>
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+    </row>
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+    </row>
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+    </row>
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+    </row>
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+    </row>
+    <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+    </row>
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="37">
+        <v>6</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+    </row>
+    <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+    </row>
+    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+    </row>
+    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+    </row>
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+    </row>
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+    </row>
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G60" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+    </row>
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="37">
+        <v>7</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+    </row>
+    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+    </row>
+    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+    </row>
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G65" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+    </row>
+    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F67" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+    </row>
+    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="37"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F68" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+    </row>
+    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="37"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F69" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+    </row>
+    <row r="70" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G70" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+    </row>
+    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="37">
+        <v>8</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G71" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+    </row>
+    <row r="73" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+    </row>
+    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+    </row>
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+    </row>
+    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F76" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+    </row>
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="37"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F78" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="37"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F79" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+    </row>
+    <row r="80" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="37"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G80" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+    </row>
+    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="37">
+        <v>9</v>
+      </c>
+      <c r="B81" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G81" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="37"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+    </row>
+    <row r="83" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="37"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+    </row>
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="37"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+    </row>
+    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="37"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G85" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+    </row>
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="37"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F86" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F87" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+    </row>
+    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="37"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F88" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="37"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F89" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+    </row>
+    <row r="90" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="37"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G90" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+    </row>
+    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="37">
+        <v>10</v>
+      </c>
+      <c r="B91" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G91" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+    </row>
+    <row r="93" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="37"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+    </row>
+    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="37"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+    </row>
+    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="37"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G95" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+    </row>
+    <row r="96" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="37"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F96" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="37"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F97" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="37"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="F98" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="37"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F99" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+    </row>
+    <row r="100" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="37"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G100" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+    </row>
+    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="37">
+        <v>11</v>
+      </c>
+      <c r="B101" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G101" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="37"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G102" s="37"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="37"/>
+    </row>
+    <row r="103" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G103" s="37"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+    </row>
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="37"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G104" s="37"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="37"/>
+    </row>
+    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="37"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G105" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+    </row>
+    <row r="106" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="37"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F106" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="37"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F107" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G107" s="37"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="37"/>
+    </row>
+    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="37"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F108" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G108" s="37"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="37"/>
+    </row>
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="37"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F109" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="G109" s="37"/>
+      <c r="H109" s="37"/>
+      <c r="I109" s="37"/>
+    </row>
+    <row r="110" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="37"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F110" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G110" s="37"/>
+      <c r="H110" s="37"/>
+      <c r="I110" s="37"/>
+    </row>
+    <row r="111" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="37"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="F111" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G111" s="37"/>
+      <c r="H111" s="37"/>
+      <c r="I111" s="37"/>
+    </row>
+    <row r="112" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="37"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G112" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" s="37"/>
+      <c r="I112" s="37"/>
+    </row>
+    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="37">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="B113" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G113" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="H113" s="37"/>
+      <c r="I113" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="37"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G114" s="37"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="37"/>
+    </row>
+    <row r="115" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="37"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G115" s="37"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="37"/>
+    </row>
+    <row r="116" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="37"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G116" s="37"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="37"/>
+    </row>
+    <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="37"/>
+      <c r="B117" s="37"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G117" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" s="37"/>
+      <c r="I117" s="37"/>
+    </row>
+    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="37"/>
+      <c r="B118" s="37"/>
+      <c r="C118" s="37"/>
+      <c r="D118" s="37"/>
+      <c r="E118" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F118" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G118" s="37"/>
+      <c r="H118" s="37"/>
+      <c r="I118" s="37"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="37"/>
+      <c r="B119" s="37"/>
+      <c r="C119" s="37"/>
+      <c r="D119" s="37"/>
+      <c r="E119" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F119" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G119" s="37"/>
+      <c r="H119" s="37"/>
+      <c r="I119" s="37"/>
+    </row>
+    <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="37"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F120" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G120" s="37"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="37"/>
+    </row>
+    <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="37"/>
+      <c r="B121" s="37"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="37"/>
+      <c r="E121" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F121" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="G121" s="37"/>
+      <c r="H121" s="37"/>
+      <c r="I121" s="37"/>
+    </row>
+    <row r="122" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="37"/>
+      <c r="B122" s="37"/>
+      <c r="C122" s="37"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F122" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G122" s="37"/>
+      <c r="H122" s="37"/>
+      <c r="I122" s="37"/>
+    </row>
+    <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="37"/>
+      <c r="B123" s="37"/>
+      <c r="C123" s="37"/>
+      <c r="D123" s="37"/>
+      <c r="E123" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="F123" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G123" s="37"/>
+      <c r="H123" s="37"/>
+      <c r="I123" s="37"/>
+    </row>
+    <row r="124" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="37"/>
+      <c r="B124" s="37"/>
+      <c r="C124" s="37"/>
+      <c r="D124" s="37"/>
+      <c r="E124" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G124" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" s="37"/>
+      <c r="I124" s="37"/>
+    </row>
+    <row r="125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="37">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30" t="s">
+      <c r="B125" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C125" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G125" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H125" s="37"/>
+      <c r="I125" s="37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
-        <v>2</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="7" t="s">
+    <row r="126" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="37"/>
+      <c r="B126" s="37"/>
+      <c r="C126" s="37"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G126" s="37"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="37"/>
+    </row>
+    <row r="127" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="37"/>
+      <c r="B127" s="37"/>
+      <c r="C127" s="37"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G127" s="37"/>
+      <c r="H127" s="37"/>
+      <c r="I127" s="37"/>
+    </row>
+    <row r="128" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="37"/>
+      <c r="B128" s="37"/>
+      <c r="C128" s="37"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+    </row>
+    <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="37"/>
+      <c r="B129" s="37"/>
+      <c r="C129" s="37"/>
+      <c r="D129" s="37"/>
+      <c r="E129" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G129" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
-        <v>3</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
-        <v>4</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
-        <v>5</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
-        <v>6</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-    </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
-        <v>7</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-    </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-    </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-    </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="25">
-        <v>8</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="25">
-        <v>9</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-    </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-    </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="25">
-        <v>10</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-    </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-    </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="25">
-        <v>11</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-    </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-    </row>
-    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-    </row>
-    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-    </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-    </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="25">
-        <v>12</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-    </row>
-    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-    </row>
-    <row r="61" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-    </row>
-    <row r="62" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-    </row>
-    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-    </row>
-    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="25">
-        <v>13</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" s="25" t="s">
+      <c r="H129" s="37"/>
+      <c r="I129" s="37"/>
+    </row>
+    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="37"/>
+      <c r="B130" s="37"/>
+      <c r="C130" s="37"/>
+      <c r="D130" s="37"/>
+      <c r="E130" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F130" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-    </row>
+      <c r="G130" s="37"/>
+      <c r="H130" s="37"/>
+      <c r="I130" s="37"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="37"/>
+      <c r="B131" s="37"/>
+      <c r="C131" s="37"/>
+      <c r="D131" s="37"/>
+      <c r="E131" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F131" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G131" s="37"/>
+      <c r="H131" s="37"/>
+      <c r="I131" s="37"/>
+    </row>
+    <row r="132" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="I57:I63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="C57:C63"/>
-    <mergeCell ref="D57:D63"/>
-    <mergeCell ref="G57:G63"/>
-    <mergeCell ref="H57:H63"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="G50:G56"/>
-    <mergeCell ref="H50:H56"/>
-    <mergeCell ref="I50:I56"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="I40:I44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="H45:H49"/>
-    <mergeCell ref="I45:I49"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="H40:H44"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="I35:I39"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="I25:I29"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="I5:I9"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="I15:I19"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I125:I131"/>
+    <mergeCell ref="A125:A131"/>
+    <mergeCell ref="B125:B131"/>
+    <mergeCell ref="C125:C131"/>
+    <mergeCell ref="D125:D131"/>
+    <mergeCell ref="G125:G131"/>
+    <mergeCell ref="H125:H131"/>
+    <mergeCell ref="I101:I112"/>
+    <mergeCell ref="A113:A124"/>
+    <mergeCell ref="B113:B124"/>
+    <mergeCell ref="C113:C124"/>
+    <mergeCell ref="D113:D124"/>
+    <mergeCell ref="G113:G124"/>
+    <mergeCell ref="H113:H124"/>
+    <mergeCell ref="I113:I124"/>
+    <mergeCell ref="A101:A112"/>
+    <mergeCell ref="B101:B112"/>
+    <mergeCell ref="C101:C112"/>
+    <mergeCell ref="D101:D112"/>
+    <mergeCell ref="G101:G112"/>
+    <mergeCell ref="H101:H112"/>
+    <mergeCell ref="I81:I90"/>
+    <mergeCell ref="A91:A100"/>
+    <mergeCell ref="B91:B100"/>
+    <mergeCell ref="C91:C100"/>
+    <mergeCell ref="D91:D100"/>
+    <mergeCell ref="G91:G100"/>
+    <mergeCell ref="H91:H100"/>
+    <mergeCell ref="I91:I100"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="B81:B90"/>
+    <mergeCell ref="C81:C90"/>
+    <mergeCell ref="D81:D90"/>
+    <mergeCell ref="G81:G90"/>
+    <mergeCell ref="H81:H90"/>
+    <mergeCell ref="I61:I70"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="C71:C80"/>
+    <mergeCell ref="D71:D80"/>
+    <mergeCell ref="G71:G80"/>
+    <mergeCell ref="H71:H80"/>
+    <mergeCell ref="I71:I80"/>
+    <mergeCell ref="A61:A70"/>
+    <mergeCell ref="B61:B70"/>
+    <mergeCell ref="C61:C70"/>
+    <mergeCell ref="D61:D70"/>
+    <mergeCell ref="G61:G70"/>
+    <mergeCell ref="H61:H70"/>
+    <mergeCell ref="I41:I50"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="B51:B60"/>
+    <mergeCell ref="C51:C60"/>
+    <mergeCell ref="D51:D60"/>
+    <mergeCell ref="G51:G60"/>
+    <mergeCell ref="H51:H60"/>
+    <mergeCell ref="I51:I60"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="C41:C50"/>
+    <mergeCell ref="D41:D50"/>
+    <mergeCell ref="G41:G50"/>
+    <mergeCell ref="H41:H50"/>
+    <mergeCell ref="H21:H30"/>
+    <mergeCell ref="I21:I30"/>
+    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="B31:B40"/>
+    <mergeCell ref="C31:C40"/>
+    <mergeCell ref="D31:D40"/>
+    <mergeCell ref="G31:G40"/>
+    <mergeCell ref="H31:H40"/>
+    <mergeCell ref="I31:I40"/>
+    <mergeCell ref="H11:H20"/>
+    <mergeCell ref="I11:I20"/>
+    <mergeCell ref="A21:A30"/>
+    <mergeCell ref="B21:B30"/>
+    <mergeCell ref="C21:C30"/>
+    <mergeCell ref="D21:D30"/>
+    <mergeCell ref="G21:G30"/>
+    <mergeCell ref="D11:D20"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="C11:C20"/>
+    <mergeCell ref="G11:G20"/>
+    <mergeCell ref="I4:I10"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="G4:G10"/>
+    <mergeCell ref="H4:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5542,10 +6441,10 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
@@ -5557,19 +6456,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
